--- a/biology/Médecine/Centre_d'expertise_de_médecine_aéronautique_(Tunisie)/Centre_d'expertise_de_médecine_aéronautique_(Tunisie).xlsx
+++ b/biology/Médecine/Centre_d'expertise_de_médecine_aéronautique_(Tunisie)/Centre_d'expertise_de_médecine_aéronautique_(Tunisie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_d%27expertise_de_m%C3%A9decine_a%C3%A9ronautique_(Tunisie)</t>
+          <t>Centre_d'expertise_de_médecine_aéronautique_(Tunisie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Centre d'expertise de médecine aéronautique (CEMEDA) est un établissement tunisien chargé de procéder à la sélection, aux contrôles médicaux révisionnels périodiques et aux expertises des candidats membres du personnel navigant militaire et civil et ce conformément aux normes. Il procède, en outre, aux études concernant les techniques d'examen et les procédures d'expertises médicales du personnel navigant et à la formation des médecins experts et du personnel paramédical destinés à exercer dans cette spécialité.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_d%27expertise_de_m%C3%A9decine_a%C3%A9ronautique_(Tunisie)</t>
+          <t>Centre_d'expertise_de_médecine_aéronautique_(Tunisie)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le plateau technique du centre comprend :
 un service de médecine générale
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_d%27expertise_de_m%C3%A9decine_a%C3%A9ronautique_(Tunisie)</t>
+          <t>Centre_d'expertise_de_médecine_aéronautique_(Tunisie)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel
  Portail de la médecine   Portail de l’histoire militaire   Portail de l’aéronautique   Portail de la Tunisie                  </t>
